--- a/datasets/happiness_reisen.xlsx
+++ b/datasets/happiness_reisen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Desktop\Happiness\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626F669-4576-4B60-8612-021074000C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA830D1A-FC91-4DD1-8285-6FEC4EF00051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,8 +145,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -679,7 +680,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -698,6 +699,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,7 +1060,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1069,6 +1072,7 @@
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1108,7 +1112,7 @@
       <c r="E2" s="8">
         <v>83019200</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="16">
         <f>(B2*1000000)/E2</f>
         <v>3.2269643648698128</v>
       </c>
@@ -1130,7 +1134,7 @@
       <c r="E3" s="9">
         <v>67028000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F31" si="0">(B3*1000000)/E3</f>
         <v>3.2851942471802831</v>
       </c>
@@ -1152,7 +1156,7 @@
       <c r="E4" s="10">
         <v>66647100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>2.3918520085645136</v>
       </c>
@@ -1174,7 +1178,7 @@
       <c r="E5" s="10">
         <v>46934600</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>3.3322964294997721</v>
       </c>
@@ -1196,7 +1200,7 @@
       <c r="E6" s="10">
         <v>60359500</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>1.129896702258965</v>
       </c>
@@ -1218,7 +1222,7 @@
       <c r="E7" s="10">
         <v>37972800</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>1.5932456916529727</v>
       </c>
@@ -1240,7 +1244,7 @@
       <c r="E8" s="10">
         <v>10230200</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>5.3273640789036385</v>
       </c>
@@ -1262,7 +1266,7 @@
       <c r="E9" s="10">
         <v>17282200</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>2.5806899584543634</v>
       </c>
@@ -1285,11 +1289,12 @@
       <c r="E10" s="8">
         <v>5517900</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="16">
         <f>(B10*1000000)/E10</f>
         <v>6.9954149223436453</v>
       </c>
       <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -1307,7 +1312,7 @@
       <c r="E11" s="10">
         <v>10649800</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>3.2488873030479444</v>
       </c>
@@ -1329,7 +1334,7 @@
       <c r="E12" s="13">
         <v>5296000</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="17">
         <f>(B12*1000000)/E12</f>
         <v>5.1170694864048336</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="E13" s="10">
         <v>8858800</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>2.7543233846570643</v>
       </c>
@@ -1373,7 +1378,7 @@
       <c r="E14" s="8">
         <v>8542300</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>2.5637123491331373</v>
       </c>
@@ -1395,7 +1400,7 @@
       <c r="E15" s="10">
         <v>9772800</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>1.9646365422396856</v>
       </c>
@@ -1417,7 +1422,7 @@
       <c r="E16" s="8">
         <v>5806100</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>3.2379738550834469</v>
       </c>
@@ -1439,7 +1444,7 @@
       <c r="E17" s="10">
         <v>19401700</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>0.94837050361566255</v>
       </c>
@@ -1461,7 +1466,7 @@
       <c r="E18" s="10">
         <v>10276600</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>1.7807446042465407</v>
       </c>
@@ -1483,7 +1488,7 @@
       <c r="E19" s="10">
         <v>11467900</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="16">
         <f t="shared" si="0"/>
         <v>1.4736787031627412</v>
       </c>
@@ -1505,7 +1510,7 @@
       <c r="E20" s="10">
         <v>4904200</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>3.2421190000407814</v>
       </c>
@@ -1527,7 +1532,7 @@
       <c r="E21" s="10">
         <v>5450400</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>2.275062380742698</v>
       </c>
@@ -1549,7 +1554,7 @@
       <c r="E22" s="8">
         <v>10722300</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>0.61553957639685519</v>
       </c>
@@ -1571,7 +1576,7 @@
       <c r="E23" s="10">
         <v>1324800</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="16">
         <f>(B23*1000000)/E23</f>
         <v>4.9064009661835746</v>
       </c>
@@ -1593,7 +1598,7 @@
       <c r="E24" s="8">
         <v>4076200</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>1.3002306069378342</v>
       </c>
@@ -1615,7 +1620,7 @@
       <c r="E25" s="10">
         <v>2080900</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>2.4989187370849151</v>
       </c>
@@ -1637,7 +1642,7 @@
       <c r="E26" s="8">
         <v>7000000</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>0.72857142857142854</v>
       </c>
@@ -1659,7 +1664,7 @@
       <c r="E27" s="10">
         <v>2794200</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>1.753632524515067</v>
       </c>
@@ -1681,7 +1686,7 @@
       <c r="E28" s="10">
         <v>1920000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>2.0833333333333335</v>
       </c>
@@ -1703,7 +1708,7 @@
       <c r="E29" s="10">
         <v>875900</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>3.4250485215207216</v>
       </c>
@@ -1725,7 +1730,7 @@
       <c r="E30" s="10">
         <v>613900</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="16">
         <f t="shared" si="0"/>
         <v>4.2352174621273821</v>
       </c>
@@ -1747,7 +1752,7 @@
       <c r="E31" s="10">
         <v>493600</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="16">
         <f t="shared" si="0"/>
         <v>1.8233387358184765</v>
       </c>
